--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829/Summary_MM_MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829/Summary_MM_MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829.xlsx
@@ -559,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.603041179261349</v>
+        <v>-2.60308120501457</v>
       </c>
       <c r="C4">
-        <v>-0.004294441185667394</v>
+        <v>-0.00429488977846005</v>
       </c>
       <c r="D4">
-        <v>-1.596213802350237</v>
+        <v>-1.596215218170617</v>
       </c>
       <c r="E4">
-        <v>-0.9373543213219268</v>
+        <v>-0.9373552863504097</v>
       </c>
       <c r="F4">
-        <v>-4.27184091321719</v>
+        <v>-4.272138466898289</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.915562086996559</v>
+        <v>-1.915810040751807</v>
       </c>
       <c r="C5">
-        <v>0.5536610157183586</v>
+        <v>0.553661319882968</v>
       </c>
       <c r="D5">
-        <v>0.9027937970845031</v>
+        <v>0.902809487144669</v>
       </c>
       <c r="E5">
-        <v>-0.02211858532903253</v>
+        <v>-0.02211751963587905</v>
       </c>
       <c r="F5">
-        <v>-0.4385403528448695</v>
+        <v>-0.4392178672197086</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -599,19 +599,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-399.8216364719976</v>
+        <v>-412.0936081882738</v>
       </c>
       <c r="C6">
-        <v>-1560.823389461253</v>
+        <v>-1573.095235881895</v>
       </c>
       <c r="D6">
-        <v>-1560.444144563665</v>
+        <v>-1572.715990017227</v>
       </c>
       <c r="E6">
-        <v>-1559.976876686135</v>
+        <v>-1572.248723280707</v>
       </c>
       <c r="F6">
-        <v>-404.8751759654551</v>
+        <v>-417.1471274691993</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -624,19 +624,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-9.419722937459597E-08</v>
+        <v>-9.420007720764255E-08</v>
       </c>
       <c r="C8">
-        <v>-0.003454088734487014</v>
+        <v>-0.003454088734457146</v>
       </c>
       <c r="D8">
-        <v>-0.007956785267228665</v>
+        <v>-0.007956785267554407</v>
       </c>
       <c r="E8">
-        <v>-0.003504368897742181</v>
+        <v>-0.003504368897694239</v>
       </c>
       <c r="F8">
-        <v>-1.167695222178526E-06</v>
+        <v>-1.167691747823062E-06</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -644,19 +644,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>194.3928358001059</v>
+        <v>194.3929473373649</v>
       </c>
       <c r="C9">
-        <v>-1.397974961046079</v>
+        <v>-1.397972171206253</v>
       </c>
       <c r="D9">
-        <v>-0.8900641378684755</v>
+        <v>-0.8900695341747269</v>
       </c>
       <c r="E9">
-        <v>-1.252562834723083</v>
+        <v>-1.252563605657381</v>
       </c>
       <c r="F9">
-        <v>54.24897827957901</v>
+        <v>54.24834647506614</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -664,19 +664,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72.43088156266467</v>
+        <v>72.43066463899612</v>
       </c>
       <c r="C10">
-        <v>-10.4603242844785</v>
+        <v>-10.4603240433026</v>
       </c>
       <c r="D10">
-        <v>-15.89767091395338</v>
+        <v>-15.8976711165716</v>
       </c>
       <c r="E10">
-        <v>-3.252889656151709</v>
+        <v>-3.252889743857651</v>
       </c>
       <c r="F10">
-        <v>-8.128809175755087</v>
+        <v>-8.129265847693343</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -684,19 +684,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.77944403581866</v>
+        <v>11.77919625208623</v>
       </c>
       <c r="C11">
-        <v>0.242082715514359</v>
+        <v>0.2420798491940576</v>
       </c>
       <c r="D11">
-        <v>0.01060322289803091</v>
+        <v>0.01060757540990058</v>
       </c>
       <c r="E11">
-        <v>-0.006697806864804534</v>
+        <v>-0.006696000763258714</v>
       </c>
       <c r="F11">
-        <v>3.080078121620683</v>
+        <v>3.079947802747798</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -704,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-2.711626612022894</v>
+        <v>-2.711485475263975</v>
       </c>
       <c r="C12">
-        <v>1.127298989707073</v>
+        <v>1.127298680111701</v>
       </c>
       <c r="D12">
-        <v>1.630047065753299</v>
+        <v>1.630046692056388</v>
       </c>
       <c r="E12">
-        <v>2.456864032187777</v>
+        <v>2.456863512323709</v>
       </c>
       <c r="F12">
-        <v>0.7808913037734134</v>
+        <v>0.7808136194015942</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,19 +724,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.790468758131786</v>
+        <v>-1.790399483171033</v>
       </c>
       <c r="C13">
-        <v>-0.0331869845586677</v>
+        <v>-0.03318777645161847</v>
       </c>
       <c r="D13">
-        <v>-0.3047226625322466</v>
+        <v>-0.304725025184418</v>
       </c>
       <c r="E13">
-        <v>0.09610365148094738</v>
+        <v>0.0961036652649048</v>
       </c>
       <c r="F13">
-        <v>-0.5896636158226131</v>
+        <v>-0.5896764021081269</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -744,19 +744,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.04404463053577384</v>
+        <v>0.04398796483090056</v>
       </c>
       <c r="C14">
-        <v>0.8752854263515412</v>
+        <v>0.8752854602494956</v>
       </c>
       <c r="D14">
-        <v>2.970165263395972</v>
+        <v>2.970165128267125</v>
       </c>
       <c r="E14">
-        <v>1.187673676727676</v>
+        <v>1.187673647889404</v>
       </c>
       <c r="F14">
-        <v>-0.3526070617037593</v>
+        <v>-0.3525579385007611</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.423114776022663</v>
+        <v>1.423108210345075</v>
       </c>
       <c r="C15">
-        <v>0.04903859644778472</v>
+        <v>0.04903816766669881</v>
       </c>
       <c r="D15">
-        <v>-0.05750277392691777</v>
+        <v>-0.05750204513569923</v>
       </c>
       <c r="E15">
-        <v>-0.01495078386550378</v>
+        <v>-0.0149507993378739</v>
       </c>
       <c r="F15">
-        <v>0.2645900643066287</v>
+        <v>0.2646129015005126</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -784,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.057053575853942</v>
+        <v>1.057059068772528</v>
       </c>
       <c r="C16">
-        <v>0.3670275120132644</v>
+        <v>0.3670275939587316</v>
       </c>
       <c r="D16">
-        <v>0.8681553205568878</v>
+        <v>0.868155212944671</v>
       </c>
       <c r="E16">
-        <v>0.4188660381892051</v>
+        <v>0.4188659749046582</v>
       </c>
       <c r="F16">
-        <v>0.2665833405382597</v>
+        <v>0.2665169728161268</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -804,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.195502479689281E-16</v>
+        <v>1.812248254634746E-16</v>
       </c>
       <c r="C17">
-        <v>-1.780809525651029E-18</v>
+        <v>-2.025861363003212E-18</v>
       </c>
       <c r="D17">
-        <v>2.733063442741305E-18</v>
+        <v>9.522638450391118E-19</v>
       </c>
       <c r="E17">
-        <v>-5.798920496251566E-18</v>
+        <v>-1.114848867930966E-17</v>
       </c>
       <c r="F17">
-        <v>1.113422646020448E-16</v>
+        <v>-2.362007689076448E-17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -824,19 +824,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.369059783197755</v>
+        <v>-0.3690089524803702</v>
       </c>
       <c r="C18">
-        <v>-0.1028715627611612</v>
+        <v>-0.1028713759603573</v>
       </c>
       <c r="D18">
-        <v>-0.08103766862292643</v>
+        <v>-0.08103767797633785</v>
       </c>
       <c r="E18">
-        <v>-0.09563455588542108</v>
+        <v>-0.09563467058520714</v>
       </c>
       <c r="F18">
-        <v>0.2737046227709035</v>
+        <v>0.2737356780958637</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -844,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.04181910577853983</v>
+        <v>-0.04184308055095823</v>
       </c>
       <c r="C19">
-        <v>-0.001866735544966672</v>
+        <v>-0.001866680936632648</v>
       </c>
       <c r="D19">
-        <v>0.01075472979336808</v>
+        <v>0.01075489273654642</v>
       </c>
       <c r="E19">
-        <v>1.898757439041786E-05</v>
+        <v>1.878409983429316E-05</v>
       </c>
       <c r="F19">
-        <v>-0.2043916939045112</v>
+        <v>-0.2042520458825919</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -864,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2167593136339389</v>
+        <v>0.2168092469651869</v>
       </c>
       <c r="C20">
-        <v>-0.03704926428692576</v>
+        <v>-0.03704905633853586</v>
       </c>
       <c r="D20">
-        <v>-0.05077199853951141</v>
+        <v>-0.05077208423854798</v>
       </c>
       <c r="E20">
-        <v>-0.04014553413549803</v>
+        <v>-0.04014543672552606</v>
       </c>
       <c r="F20">
-        <v>-0.1197202730846359</v>
+        <v>-0.1196904202242014</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -884,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1248107395344456</v>
+        <v>0.1249253972738107</v>
       </c>
       <c r="C21">
-        <v>-0.003011747811091008</v>
+        <v>-0.003012398980096443</v>
       </c>
       <c r="D21">
-        <v>-0.0001868226663042131</v>
+        <v>-0.0001869130471513532</v>
       </c>
       <c r="E21">
-        <v>0.002628348337763485</v>
+        <v>0.002628116460796267</v>
       </c>
       <c r="F21">
-        <v>0.02011219473989667</v>
+        <v>0.02006444193899844</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -904,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.1400520143940097</v>
+        <v>-0.1401155371575235</v>
       </c>
       <c r="C22">
-        <v>0.003656999910561134</v>
+        <v>0.003657168922026111</v>
       </c>
       <c r="D22">
-        <v>-0.002235528074433531</v>
+        <v>-0.002235502942625419</v>
       </c>
       <c r="E22">
-        <v>0.005297300353769241</v>
+        <v>0.005297282858628224</v>
       </c>
       <c r="F22">
-        <v>-0.1648532532845104</v>
+        <v>-0.1647666302733035</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -929,19 +929,19 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>4.065758146820642E-21</v>
+        <v>3.388131789017201E-21</v>
       </c>
       <c r="C24">
-        <v>2.941745425814185E-19</v>
+        <v>2.310705880109731E-19</v>
       </c>
       <c r="D24">
-        <v>3.974278588517178E-19</v>
+        <v>4.756937031780152E-19</v>
       </c>
       <c r="E24">
-        <v>2.092171379718122E-19</v>
+        <v>2.087089182034596E-19</v>
       </c>
       <c r="F24">
-        <v>3.896351557369781E-21</v>
+        <v>4.192813088908787E-21</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -949,19 +949,19 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>310.6913578423682</v>
+        <v>310.6911736787096</v>
       </c>
       <c r="C25">
-        <v>10.50388507016855</v>
+        <v>10.50388470754494</v>
       </c>
       <c r="D25">
-        <v>0.753592247868347</v>
+        <v>0.7535893262432687</v>
       </c>
       <c r="E25">
-        <v>1.354460899700119</v>
+        <v>1.354460517088053</v>
       </c>
       <c r="F25">
-        <v>37.86483367618334</v>
+        <v>37.86470043131875</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -969,19 +969,19 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>-7.873297858547391</v>
+        <v>-7.873519263282365</v>
       </c>
       <c r="C26">
-        <v>0.9380406716506595</v>
+        <v>0.9380435427548708</v>
       </c>
       <c r="D26">
-        <v>-0.3602911142578851</v>
+        <v>-0.3602918566428404</v>
       </c>
       <c r="E26">
-        <v>-0.5783431783042579</v>
+        <v>-0.5783437351082199</v>
       </c>
       <c r="F26">
-        <v>-3.326015605032772</v>
+        <v>-3.326858259060327</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -989,19 +989,19 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>-16.21557465986936</v>
+        <v>-16.21526101335202</v>
       </c>
       <c r="C27">
-        <v>0.3341513908887496</v>
+        <v>0.3341518150280235</v>
       </c>
       <c r="D27">
-        <v>-0.293525783135859</v>
+        <v>-0.2935291073655064</v>
       </c>
       <c r="E27">
-        <v>-0.8206714714054759</v>
+        <v>-0.8206714747947108</v>
       </c>
       <c r="F27">
-        <v>1.393290458084165</v>
+        <v>1.392476235730789</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1009,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>-1.900878325333793</v>
+        <v>-1.901465263085703</v>
       </c>
       <c r="C28">
-        <v>-0.01776265760840734</v>
+        <v>-0.01776430373874094</v>
       </c>
       <c r="D28">
-        <v>-0.06489157770459597</v>
+        <v>-0.06489113076750064</v>
       </c>
       <c r="E28">
-        <v>-0.1621525782800366</v>
+        <v>-0.1621545014034498</v>
       </c>
       <c r="F28">
-        <v>1.151674451902212</v>
+        <v>1.151803739774326</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1029,19 +1029,19 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>0.09087546985613026</v>
+        <v>0.09082792714572752</v>
       </c>
       <c r="C29">
-        <v>0.2367852377478952</v>
+        <v>0.2367855587979849</v>
       </c>
       <c r="D29">
-        <v>0.547683111716555</v>
+        <v>0.5476910617883388</v>
       </c>
       <c r="E29">
-        <v>0.4087242013751262</v>
+        <v>0.4087244027272382</v>
       </c>
       <c r="F29">
-        <v>-1.368169199343384</v>
+        <v>-1.368066669075675</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1049,19 +1049,19 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>1.153169237341055</v>
+        <v>1.153130989063905</v>
       </c>
       <c r="C30">
-        <v>-0.03625544007284187</v>
+        <v>-0.03625523232270633</v>
       </c>
       <c r="D30">
-        <v>0.03490159759839884</v>
+        <v>0.03490135394124416</v>
       </c>
       <c r="E30">
-        <v>-0.01144010291968811</v>
+        <v>-0.01144016126623709</v>
       </c>
       <c r="F30">
-        <v>0.6246781611948673</v>
+        <v>0.6245715913930905</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1069,19 +1069,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>-0.4472993000146442</v>
+        <v>-0.4473670765177641</v>
       </c>
       <c r="C31">
-        <v>0.01854346605965557</v>
+        <v>0.01854363808268923</v>
       </c>
       <c r="D31">
-        <v>0.05103804523066974</v>
+        <v>0.05103919945301558</v>
       </c>
       <c r="E31">
-        <v>-0.1013442117564839</v>
+        <v>-0.1013441356448724</v>
       </c>
       <c r="F31">
-        <v>-0.3021193459035348</v>
+        <v>-0.3021482860110263</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1089,19 +1089,19 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>-0.5936549439987304</v>
+        <v>-0.5936296816499438</v>
       </c>
       <c r="C32">
-        <v>0.01488904818533099</v>
+        <v>0.01488919141272466</v>
       </c>
       <c r="D32">
-        <v>0.006728210699946696</v>
+        <v>0.006728181808811323</v>
       </c>
       <c r="E32">
-        <v>-0.007261314264776386</v>
+        <v>-0.00726148098249213</v>
       </c>
       <c r="F32">
-        <v>0.06219339418074255</v>
+        <v>0.06217450009333315</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1109,19 +1109,19 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>-1.789086137856882E-16</v>
+        <v>-1.597617687550751E-16</v>
       </c>
       <c r="C33">
-        <v>4.205019780066801E-18</v>
+        <v>-2.356134302850662E-18</v>
       </c>
       <c r="D33">
-        <v>9.1720823701891E-19</v>
+        <v>3.739281293558251E-18</v>
       </c>
       <c r="E33">
-        <v>1.726995461927816E-19</v>
+        <v>-1.782624379066393E-18</v>
       </c>
       <c r="F33">
-        <v>9.940519771124697E-17</v>
+        <v>-4.908022876173174E-19</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,19 +1129,19 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.2460478666688641</v>
+        <v>0.2460519870245776</v>
       </c>
       <c r="C34">
-        <v>-0.01148063323921099</v>
+        <v>-0.01148026298108923</v>
       </c>
       <c r="D34">
-        <v>0.0022168965728653</v>
+        <v>0.002216866872204806</v>
       </c>
       <c r="E34">
-        <v>0.0005786159859123285</v>
+        <v>0.0005783172714818874</v>
       </c>
       <c r="F34">
-        <v>0.2338044508728829</v>
+        <v>0.2338946465213785</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1149,19 +1149,19 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>-0.1084782212530534</v>
+        <v>-0.1084543388643623</v>
       </c>
       <c r="C35">
-        <v>-0.004191272508429465</v>
+        <v>-0.004191314432445823</v>
       </c>
       <c r="D35">
-        <v>-0.01378046396960497</v>
+        <v>-0.01378068789475848</v>
       </c>
       <c r="E35">
-        <v>-0.003432504912960553</v>
+        <v>-0.003432406505066408</v>
       </c>
       <c r="F35">
-        <v>-0.2466290757124948</v>
+        <v>-0.2465898966424855</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1169,19 +1169,19 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0.439774002923287</v>
+        <v>0.4396620956118028</v>
       </c>
       <c r="C36">
-        <v>0.0009009854850318133</v>
+        <v>0.0009013159198548309</v>
       </c>
       <c r="D36">
-        <v>-0.001462945906147576</v>
+        <v>-0.001463130394078251</v>
       </c>
       <c r="E36">
-        <v>-0.004015808427399473</v>
+        <v>-0.004015769399358389</v>
       </c>
       <c r="F36">
-        <v>-0.03399117448262817</v>
+        <v>-0.03401137889537476</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1189,19 +1189,19 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0.7330937734412303</v>
+        <v>0.733148613599347</v>
       </c>
       <c r="C37">
-        <v>0.0005543408519874897</v>
+        <v>0.0005548161176116234</v>
       </c>
       <c r="D37">
-        <v>0.0005221185106471704</v>
+        <v>0.00052212405767163</v>
       </c>
       <c r="E37">
-        <v>0.006424587400097483</v>
+        <v>0.006424774998651025</v>
       </c>
       <c r="F37">
-        <v>0.3983185563353089</v>
+        <v>0.398413721801686</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1209,19 +1209,19 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>-0.01780147366938207</v>
+        <v>-0.0177398696928528</v>
       </c>
       <c r="C38">
-        <v>0.00194814862782331</v>
+        <v>0.001948365479390995</v>
       </c>
       <c r="D38">
-        <v>-1.667752353581506E-05</v>
+        <v>-1.663764841795725E-05</v>
       </c>
       <c r="E38">
-        <v>0.0002078253598037528</v>
+        <v>0.0002078069055355455</v>
       </c>
       <c r="F38">
-        <v>0.02769981766578366</v>
+        <v>0.02760682296143242</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>37</v>
       </c>
       <c r="B41">
-        <v>-9.419722937459597E-05</v>
+        <v>-9.420007720764255E-05</v>
       </c>
       <c r="C41">
-        <v>-3.454088734487014</v>
+        <v>-3.454088734457146</v>
       </c>
       <c r="D41">
-        <v>-7.956785267228666</v>
+        <v>-7.956785267554407</v>
       </c>
       <c r="E41">
-        <v>-3.504368897742181</v>
+        <v>-3.504368897694239</v>
       </c>
       <c r="F41">
-        <v>-0.001167695222178526</v>
+        <v>-0.001167691747823062</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>-1.883944587491919E-05</v>
+        <v>-1.884001544152851E-05</v>
       </c>
       <c r="C42">
-        <v>-0.6908177468974028</v>
+        <v>-0.6908177468914293</v>
       </c>
       <c r="D42">
-        <v>-1.591357053445733</v>
+        <v>-1.591357053510881</v>
       </c>
       <c r="E42">
-        <v>-0.7008737795484363</v>
+        <v>-0.7008737795388479</v>
       </c>
       <c r="F42">
-        <v>-0.0002335390444357053</v>
+        <v>-0.0002335383495646125</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>39</v>
       </c>
       <c r="B43">
-        <v>6.314966588264548E-06</v>
+        <v>6.315157506678559E-06</v>
       </c>
       <c r="C43">
-        <v>0.2315615341980437</v>
+        <v>0.2315615342019186</v>
       </c>
       <c r="D43">
-        <v>0.5334215607629716</v>
+        <v>0.533421560798348</v>
       </c>
       <c r="E43">
-        <v>0.234932307978939</v>
+        <v>0.2349323079816877</v>
       </c>
       <c r="F43">
-        <v>7.828209345743476E-05</v>
+        <v>7.828186053920925E-05</v>
       </c>
     </row>
   </sheetData>
